--- a/data/cleaned.xlsx
+++ b/data/cleaned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unilj-my.sharepoint.com/personal/juredem_fri1_uni-lj_si/Documents/todo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\vein_ablation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="13_ncr:1_{1CA283B0-F84A-6946-A66A-C79B14D2587D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F965FCDA-53B1-6144-BA2B-306484445706}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8491AA3-42D0-45DA-8F19-2E4E353952AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33500" yWindow="7540" windowWidth="45940" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34455" yWindow="540" windowWidth="30570" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -332,7 +332,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -481,28 +481,28 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -722,22 +722,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD20976-4E45-A146-A84F-07820FEA4BED}">
   <dimension ref="A1:CC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BT1" sqref="BT1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="14"/>
-    <col min="2" max="2" width="18.6640625" style="14" customWidth="1"/>
-    <col min="3" max="21" width="10.83203125" style="14"/>
-    <col min="22" max="22" width="12.5" style="14" customWidth="1"/>
-    <col min="23" max="60" width="10.83203125" style="14"/>
-    <col min="61" max="61" width="10.5" style="14" customWidth="1"/>
-    <col min="62" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="14" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="14" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="14" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="14" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" style="14" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="14" customWidth="1"/>
+    <col min="27" max="60" width="10.85546875" style="14"/>
+    <col min="61" max="61" width="10.42578125" style="14" customWidth="1"/>
+    <col min="62" max="16384" width="10.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" ht="156" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:81" ht="156" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
@@ -982,7 +1004,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:81">
       <c r="A2" s="14" t="s">
         <v>96</v>
       </c>
@@ -1189,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:81" ht="25.5">
       <c r="A3" s="14" t="s">
         <v>97</v>
       </c>
@@ -1434,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:81">
       <c r="A4" s="14" t="s">
         <v>96</v>
       </c>
@@ -1679,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:81" ht="25.5">
       <c r="A5" s="14" t="s">
         <v>97</v>
       </c>
@@ -1922,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:81" ht="25.5">
       <c r="A6" s="14" t="s">
         <v>97</v>
       </c>
@@ -2165,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:81" ht="25.5">
       <c r="A7" s="14" t="s">
         <v>97</v>
       </c>
@@ -2410,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:81">
       <c r="A8" s="14" t="s">
         <v>96</v>
       </c>
@@ -2650,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:81" ht="25.5">
       <c r="A9" s="14" t="s">
         <v>97</v>
       </c>
@@ -2893,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:81" ht="25.5">
       <c r="A10" s="14" t="s">
         <v>97</v>
       </c>
@@ -3133,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:81">
       <c r="A11" s="14" t="s">
         <v>96</v>
       </c>
@@ -3376,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:81" ht="25.5">
       <c r="A12" s="14" t="s">
         <v>97</v>
       </c>
@@ -3619,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:81" ht="25.5">
       <c r="A13" s="14" t="s">
         <v>97</v>
       </c>
@@ -3859,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:81">
       <c r="A14" s="14" t="s">
         <v>96</v>
       </c>
@@ -4099,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:81" ht="25.5">
       <c r="A15" s="14" t="s">
         <v>97</v>
       </c>
@@ -4342,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:81" ht="25.5">
       <c r="A16" s="14" t="s">
         <v>97</v>
       </c>
@@ -4587,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:81" ht="25.5">
       <c r="A17" s="14" t="s">
         <v>97</v>
       </c>
@@ -4830,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:81">
       <c r="A18" s="14" t="s">
         <v>96</v>
       </c>
@@ -5075,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:81">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -5318,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:81">
       <c r="A20" s="14" t="s">
         <v>96</v>
       </c>
@@ -5563,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:81">
       <c r="A21" s="14" t="s">
         <v>96</v>
       </c>
@@ -5808,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:81">
       <c r="A22" s="14" t="s">
         <v>96</v>
       </c>
@@ -6051,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:81">
       <c r="A23" s="14" t="s">
         <v>96</v>
       </c>
@@ -6294,7 +6316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:81">
       <c r="A24" s="14" t="s">
         <v>96</v>
       </c>
@@ -6537,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:81" ht="25.5">
       <c r="A25" s="14" t="s">
         <v>97</v>
       </c>
@@ -6777,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:81">
       <c r="A26" s="14" t="s">
         <v>96</v>
       </c>
@@ -7022,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:81">
       <c r="A27" s="14" t="s">
         <v>96</v>
       </c>
@@ -7265,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:81">
       <c r="A28" s="14" t="s">
         <v>96</v>
       </c>
@@ -7508,7 +7530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:81">
       <c r="A29" s="14" t="s">
         <v>96</v>
       </c>
@@ -7751,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:81">
       <c r="A30" s="14" t="s">
         <v>96</v>
       </c>
@@ -7994,7 +8016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:81">
       <c r="A31" s="14" t="s">
         <v>96</v>
       </c>
@@ -8239,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:81">
       <c r="A32" s="14" t="s">
         <v>96</v>
       </c>
@@ -8479,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:81" ht="25.5">
       <c r="A33" s="14" t="s">
         <v>97</v>
       </c>
@@ -8724,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:81" ht="25.5">
       <c r="A34" s="14" t="s">
         <v>97</v>
       </c>
@@ -8967,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:81">
       <c r="A35" s="14" t="s">
         <v>96</v>
       </c>
@@ -9210,7 +9232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:81" ht="25.5">
       <c r="A36" s="14" t="s">
         <v>97</v>
       </c>
@@ -9453,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:81">
       <c r="A37" s="14" t="s">
         <v>96</v>
       </c>
@@ -9698,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:81" ht="25.5">
       <c r="A38" s="14" t="s">
         <v>97</v>
       </c>
@@ -9940,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:81" ht="25.5">
       <c r="A39" s="14" t="s">
         <v>97</v>
       </c>
@@ -10185,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:81" ht="25.5">
       <c r="A40" s="14" t="s">
         <v>97</v>
       </c>
@@ -10428,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:81">
       <c r="A41" s="14" t="s">
         <v>96</v>
       </c>
@@ -10673,7 +10695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:81">
       <c r="A42" s="14" t="s">
         <v>96</v>
       </c>
@@ -10916,7 +10938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:81" ht="25.5">
       <c r="A43" s="14" t="s">
         <v>97</v>
       </c>
@@ -11159,7 +11181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:81" ht="25.5">
       <c r="A44" s="14" t="s">
         <v>97</v>
       </c>
@@ -11402,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:81">
       <c r="A45" s="14" t="s">
         <v>96</v>
       </c>
@@ -11645,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:81">
       <c r="A46" s="14" t="s">
         <v>96</v>
       </c>
@@ -11888,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:81" ht="25.5">
       <c r="A47" s="14" t="s">
         <v>97</v>
       </c>
@@ -12125,7 +12147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:81" ht="25.5">
       <c r="A48" s="14" t="s">
         <v>97</v>
       </c>
@@ -12270,7 +12292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:81" ht="25.5">
       <c r="A49" s="14" t="s">
         <v>97</v>
       </c>
@@ -12513,7 +12535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:81" ht="25.5">
       <c r="A50" s="14" t="s">
         <v>97</v>
       </c>
@@ -12758,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:81">
       <c r="A51" s="14" t="s">
         <v>96</v>
       </c>
@@ -13001,7 +13023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:81" ht="25.5">
       <c r="A52" s="14" t="s">
         <v>97</v>
       </c>
@@ -13244,7 +13266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:81" ht="25.5">
       <c r="A53" s="14" t="s">
         <v>97</v>
       </c>
@@ -13481,7 +13503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:81" ht="25.5">
       <c r="A54" s="14" t="s">
         <v>97</v>
       </c>
@@ -13623,7 +13645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:81" ht="25.5">
       <c r="A55" s="14" t="s">
         <v>97</v>
       </c>
@@ -13765,7 +13787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:81">
       <c r="A56" s="14" t="s">
         <v>96</v>
       </c>
@@ -14010,7 +14032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:81">
       <c r="A57" s="14" t="s">
         <v>96</v>
       </c>
@@ -14255,7 +14277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:81">
       <c r="A58" s="14" t="s">
         <v>96</v>
       </c>
@@ -14492,7 +14514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:81" ht="25.5">
       <c r="A59" s="14" t="s">
         <v>97</v>
       </c>
@@ -14735,7 +14757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:81">
       <c r="A60" s="14" t="s">
         <v>96</v>
       </c>
@@ -14877,7 +14899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:81" ht="25.5">
       <c r="A61" s="14" t="s">
         <v>97</v>
       </c>

--- a/data/cleaned.xlsx
+++ b/data/cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\vein_ablation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8491AA3-42D0-45DA-8F19-2E4E353952AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB720C1-555F-4417-87AE-66BC42712848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34455" yWindow="540" windowWidth="30570" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36195" yWindow="885" windowWidth="30570" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="99">
   <si>
     <t>probnp</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>high_density</t>
+  </si>
+  <si>
+    <t>skin_skin_time2</t>
   </si>
 </sst>
 </file>
@@ -722,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD20976-4E45-A146-A84F-07820FEA4BED}">
   <dimension ref="A1:CC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BT1" sqref="BT1"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AY1" sqref="AY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -911,7 +914,7 @@
         <v>57</v>
       </c>
       <c r="AY1" s="13" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="AZ1" s="13" t="s">
         <v>58</v>

--- a/data/cleaned.xlsx
+++ b/data/cleaned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\vein_ablation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juredemsar/Documents/work/vein_ablation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB720C1-555F-4417-87AE-66BC42712848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B864FD2A-57FD-4F4E-86E1-DA2F03D5B110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36195" yWindow="885" windowWidth="30570" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37180" yWindow="4620" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="100">
   <si>
     <t>probnp</t>
   </si>
@@ -199,9 +199,6 @@
     <t>lipv_lp</t>
   </si>
   <si>
-    <t>re-intervention_dat</t>
-  </si>
-  <si>
     <t>number_of_isolated_veins</t>
   </si>
   <si>
@@ -330,12 +327,18 @@
   <si>
     <t>skin_skin_time2</t>
   </si>
+  <si>
+    <t>la_volume_index_12</t>
+  </si>
+  <si>
+    <t>reintervention_date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -725,44 +728,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD20976-4E45-A146-A84F-07820FEA4BED}">
   <dimension ref="A1:CC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AY1" sqref="AY1"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1640625" style="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="14" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="14" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="14" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="14" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" style="14" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" style="14" customWidth="1"/>
-    <col min="27" max="60" width="10.85546875" style="14"/>
-    <col min="61" max="61" width="10.42578125" style="14" customWidth="1"/>
-    <col min="62" max="16384" width="10.85546875" style="14"/>
+    <col min="21" max="21" width="12.83203125" style="14" customWidth="1"/>
+    <col min="22" max="22" width="14.5" style="14" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" style="14" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" style="14" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" style="14" customWidth="1"/>
+    <col min="26" max="26" width="12.83203125" style="14" customWidth="1"/>
+    <col min="27" max="60" width="10.83203125" style="14"/>
+    <col min="61" max="61" width="10.5" style="14" customWidth="1"/>
+    <col min="62" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" ht="156" customHeight="1">
+    <row r="1" spans="1:81" ht="156" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
@@ -902,114 +905,114 @@
         <v>54</v>
       </c>
       <c r="AU1" s="13" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="AV1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AW1" s="13" t="s">
+      <c r="AX1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AX1" s="13" t="s">
+      <c r="AY1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ1" s="13" t="s">
+      <c r="BA1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA1" s="13" t="s">
+      <c r="BB1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="BB1" s="13" t="s">
+      <c r="BC1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="BC1" s="13" t="s">
+      <c r="BD1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BD1" s="13" t="s">
+      <c r="BE1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BE1" s="13" t="s">
+      <c r="BF1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="BF1" s="13" t="s">
+      <c r="BG1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="BG1" s="13" t="s">
+      <c r="BH1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="BH1" s="13" t="s">
+      <c r="BI1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="BI1" s="13" t="s">
+      <c r="BJ1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="BJ1" s="13" t="s">
+      <c r="BK1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="BK1" s="13" t="s">
+      <c r="BL1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="BL1" s="13" t="s">
+      <c r="BM1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="BM1" s="13" t="s">
+      <c r="BN1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="BN1" s="13" t="s">
+      <c r="BO1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="BO1" s="13" t="s">
+      <c r="BP1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="BP1" s="13" t="s">
+      <c r="BQ1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="BQ1" s="13" t="s">
+      <c r="BR1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="BR1" s="13" t="s">
+      <c r="BS1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="BS1" s="13" t="s">
+      <c r="BT1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="BT1" s="13" t="s">
+      <c r="BU1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="BU1" s="13" t="s">
+      <c r="BW1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="BV1" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BW1" s="13" t="s">
+      <c r="BX1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="BX1" s="13" t="s">
+      <c r="BY1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="BY1" s="13" t="s">
+      <c r="BZ1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BZ1" s="13" t="s">
+      <c r="CA1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="CA1" s="13" t="s">
+      <c r="CB1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="CB1" s="13" t="s">
+      <c r="CC1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CC1" s="13" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="2" spans="1:81">
+    <row r="2" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2">
         <v>44264</v>
@@ -1019,7 +1022,7 @@
         <v>70.660273972602738</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="14">
         <v>22.313278429145196</v>
@@ -1214,9 +1217,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:81" ht="25.5">
+    <row r="3" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2">
         <v>44266</v>
@@ -1228,7 +1231,7 @@
         <v>70.813698630136983</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="14">
         <v>30.222222222222221</v>
@@ -1246,7 +1249,7 @@
         <v>70</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>2</v>
@@ -1459,9 +1462,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:81">
+    <row r="4" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2">
         <v>44278</v>
@@ -1473,7 +1476,7 @@
         <v>67.671232876712324</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="14">
         <v>32.873109796186718</v>
@@ -1491,7 +1494,7 @@
         <v>71</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>2</v>
@@ -1704,9 +1707,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:81" ht="25.5">
+    <row r="5" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2">
         <v>44278</v>
@@ -1947,9 +1950,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:81" ht="25.5">
+    <row r="6" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2">
         <v>44285</v>
@@ -1959,7 +1962,7 @@
         <v>69.945205479452056</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="14">
         <v>27.143037495265748</v>
@@ -2190,9 +2193,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:81" ht="25.5">
+    <row r="7" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="2">
         <v>44292</v>
@@ -2204,7 +2207,7 @@
         <v>62.649315068493152</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="14">
         <v>26.562499999999996</v>
@@ -2435,9 +2438,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:81">
+    <row r="8" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2">
         <v>44328</v>
@@ -2465,7 +2468,7 @@
         <v>77</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>2</v>
@@ -2675,9 +2678,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:81" ht="25.5">
+    <row r="9" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2">
         <v>44329</v>
@@ -2705,7 +2708,7 @@
         <v>69</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>2</v>
@@ -2918,9 +2921,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:81" ht="25.5">
+    <row r="10" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2">
         <v>44425</v>
@@ -2948,7 +2951,7 @@
         <v>60</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>3</v>
@@ -3158,9 +3161,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:81">
+    <row r="11" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2">
         <v>44427</v>
@@ -3401,9 +3404,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:81" ht="25.5">
+    <row r="12" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2">
         <v>44439</v>
@@ -3431,7 +3434,7 @@
         <v>60</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>2</v>
@@ -3644,9 +3647,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:81" ht="25.5">
+    <row r="13" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2">
         <v>44476</v>
@@ -3656,7 +3659,7 @@
         <v>53.956164383561642</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="14">
         <v>25.393431120318084</v>
@@ -3884,9 +3887,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:81">
+    <row r="14" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="2">
         <v>44483</v>
@@ -4124,9 +4127,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:81" ht="25.5">
+    <row r="15" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="2">
         <v>44482</v>
@@ -4136,7 +4139,7 @@
         <v>69.756164383561639</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="14">
         <v>34.484157572315304</v>
@@ -4154,7 +4157,7 @@
         <v>55</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>2</v>
@@ -4367,9 +4370,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:81" ht="25.5">
+    <row r="16" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2">
         <v>44539</v>
@@ -4399,7 +4402,7 @@
         <v>65</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>3</v>
@@ -4612,9 +4615,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:81" ht="25.5">
+    <row r="17" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2">
         <v>44574</v>
@@ -4855,9 +4858,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:81">
+    <row r="18" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="2">
         <v>44587</v>
@@ -4887,7 +4890,7 @@
         <v>61</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>2</v>
@@ -5100,9 +5103,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:81">
+    <row r="19" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="2">
         <v>44595</v>
@@ -5130,7 +5133,7 @@
         <v>68</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>2</v>
@@ -5343,9 +5346,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:81">
+    <row r="20" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="2">
         <v>44607</v>
@@ -5357,7 +5360,7 @@
         <v>67.336986301369862</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" s="14">
         <v>40.517766861486606</v>
@@ -5588,9 +5591,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:81">
+    <row r="21" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="2">
         <v>44628</v>
@@ -5602,7 +5605,7 @@
         <v>70.641095890410952</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21" s="14">
         <v>35.926839889679201</v>
@@ -5833,9 +5836,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:81">
+    <row r="22" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="2">
         <v>44635</v>
@@ -5845,7 +5848,7 @@
         <v>48.780821917808218</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="14">
         <v>31.861629494765594</v>
@@ -5863,7 +5866,7 @@
         <v>63</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>2</v>
@@ -6076,9 +6079,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:81">
+    <row r="23" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="2">
         <v>44642</v>
@@ -6319,9 +6322,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:81">
+    <row r="24" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="2">
         <v>44643</v>
@@ -6562,9 +6565,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:81" ht="25.5">
+    <row r="25" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="2">
         <v>44663</v>
@@ -6802,9 +6805,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:81">
+    <row r="26" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="2">
         <v>44673</v>
@@ -7047,9 +7050,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:81">
+    <row r="27" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="6">
         <v>44679</v>
@@ -7059,7 +7062,7 @@
         <v>73.723287671232882</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F27" s="14">
         <v>31.553659148768332</v>
@@ -7290,9 +7293,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:81">
+    <row r="28" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="2">
         <v>44741</v>
@@ -7533,9 +7536,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:81">
+    <row r="29" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="10">
         <v>44747</v>
@@ -7776,9 +7779,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:81">
+    <row r="30" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="2">
         <v>44749</v>
@@ -7806,7 +7809,7 @@
         <v>61</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L30" s="14" t="s">
         <v>3</v>
@@ -8019,9 +8022,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:81">
+    <row r="31" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="2">
         <v>44757</v>
@@ -8264,9 +8267,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:81">
+    <row r="32" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="2">
         <v>44782</v>
@@ -8276,7 +8279,7 @@
         <v>64.654794520547952</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" s="14">
         <v>35.294117647058826</v>
@@ -8504,9 +8507,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:81" ht="25.5">
+    <row r="33" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="6">
         <v>44784</v>
@@ -8518,7 +8521,7 @@
         <v>69.857534246575341</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F33" s="14">
         <v>29.687499999999993</v>
@@ -8749,9 +8752,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:81" ht="25.5">
+    <row r="34" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="6">
         <v>44798</v>
@@ -8992,9 +8995,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:81">
+    <row r="35" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" s="11">
         <v>44804</v>
@@ -9004,7 +9007,7 @@
         <v>73.183561643835617</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F35" s="14">
         <v>29.411764705882355</v>
@@ -9022,7 +9025,7 @@
         <v>61</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L35" s="14" t="s">
         <v>2</v>
@@ -9235,9 +9238,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:81" ht="25.5">
+    <row r="36" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" s="11">
         <v>44818</v>
@@ -9247,7 +9250,7 @@
         <v>52.424657534246577</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F36" s="14">
         <v>33.139755081429108</v>
@@ -9478,9 +9481,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:81">
+    <row r="37" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="11">
         <v>44826</v>
@@ -9492,7 +9495,7 @@
         <v>58.463013698630135</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F37" s="14">
         <v>28.685144680698485</v>
@@ -9510,7 +9513,7 @@
         <v>64</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="14" t="s">
         <v>2</v>
@@ -9723,15 +9726,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:81" ht="25.5">
+    <row r="38" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="8">
         <v>44826</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="14">
         <v>67.249315068493146</v>
@@ -9755,7 +9758,7 @@
         <v>62</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L38" s="14" t="s">
         <v>2</v>
@@ -9965,9 +9968,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:81" ht="25.5">
+    <row r="39" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="8">
         <v>44838</v>
@@ -10210,9 +10213,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:81" ht="25.5">
+    <row r="40" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" s="2">
         <v>44841</v>
@@ -10453,15 +10456,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:81">
+    <row r="41" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2">
         <v>44846</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" s="14">
         <v>74.980821917808214</v>
@@ -10698,9 +10701,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:81">
+    <row r="42" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2">
         <v>44848</v>
@@ -10710,7 +10713,7 @@
         <v>74.142465753424659</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F42" s="14">
         <v>28.479886080455675</v>
@@ -10728,7 +10731,7 @@
         <v>61</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L42" s="14" t="s">
         <v>2</v>
@@ -10941,9 +10944,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:81" ht="25.5">
+    <row r="43" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2">
         <v>44854</v>
@@ -11184,9 +11187,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:81" ht="25.5">
+    <row r="44" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2">
         <v>44853</v>
@@ -11427,9 +11430,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:81">
+    <row r="45" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2">
         <v>44854</v>
@@ -11439,7 +11442,7 @@
         <v>74.895890410958899</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F45" s="14">
         <v>42</v>
@@ -11457,7 +11460,7 @@
         <v>60</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L45" s="14" t="s">
         <v>2</v>
@@ -11670,9 +11673,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:81">
+    <row r="46" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2">
         <v>44859</v>
@@ -11682,7 +11685,7 @@
         <v>69.558904109589037</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F46" s="14">
         <v>27.450604870886398</v>
@@ -11700,7 +11703,7 @@
         <v>60</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L46" s="14" t="s">
         <v>2</v>
@@ -11913,9 +11916,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:81" ht="25.5">
+    <row r="47" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2">
         <v>44862</v>
@@ -12150,9 +12153,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:81" ht="25.5">
+    <row r="48" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="4">
         <v>44868</v>
@@ -12295,9 +12298,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:81" ht="25.5">
+    <row r="49" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2">
         <v>44897</v>
@@ -12538,9 +12541,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:81" ht="25.5">
+    <row r="50" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2">
         <v>44932</v>
@@ -12552,7 +12555,7 @@
         <v>59.706849315068496</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F50" s="14">
         <v>22.321428571428577</v>
@@ -12570,7 +12573,7 @@
         <v>59</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L50" s="14" t="s">
         <v>2</v>
@@ -12783,9 +12786,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:81">
+    <row r="51" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2">
         <v>44939</v>
@@ -13026,9 +13029,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:81" ht="25.5">
+    <row r="52" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2">
         <v>44967</v>
@@ -13269,9 +13272,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:81" ht="25.5">
+    <row r="53" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B53" s="5">
         <v>44988</v>
@@ -13281,7 +13284,7 @@
         <v>73.764383561643839</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F53" s="14">
         <v>24.049343594386603</v>
@@ -13506,9 +13509,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:81" ht="25.5">
+    <row r="54" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B54" s="5">
         <v>45019</v>
@@ -13518,7 +13521,7 @@
         <v>63.024657534246572</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F54" s="14">
         <v>19.607156612163443</v>
@@ -13648,9 +13651,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:81" ht="25.5">
+    <row r="55" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" s="5">
         <v>45023</v>
@@ -13678,7 +13681,7 @@
         <v>69</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L55" s="14" t="s">
         <v>2</v>
@@ -13790,9 +13793,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:81">
+    <row r="56" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56" s="5">
         <v>45027</v>
@@ -13804,7 +13807,7 @@
         <v>67.449315068493149</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F56" s="14">
         <v>19.531249999999996</v>
@@ -14035,21 +14038,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:81">
+    <row r="57" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2">
         <v>45030</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57" s="14">
         <v>75.868493150684927</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F57" s="14">
         <v>29.744199881023206</v>
@@ -14280,9 +14283,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:81">
+    <row r="58" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B58" s="5">
         <v>45065</v>
@@ -14517,9 +14520,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:81" ht="25.5">
+    <row r="59" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B59" s="5">
         <v>45078</v>
@@ -14760,9 +14763,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:81">
+    <row r="60" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2">
         <v>45107</v>
@@ -14772,7 +14775,7 @@
         <v>66.145205479452059</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F60" s="14">
         <v>41.808390022675745</v>
@@ -14790,7 +14793,7 @@
         <v>59</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L60" s="14" t="s">
         <v>2</v>
@@ -14902,9 +14905,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:81" ht="25.5">
+    <row r="61" spans="1:81" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2">
         <v>45114</v>

--- a/data/cleaned.xlsx
+++ b/data/cleaned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juredemsar/Documents/work/vein_ablation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\vein_ablation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B864FD2A-57FD-4F4E-86E1-DA2F03D5B110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD1E7C3-DB8D-4176-914F-8B1A215C4159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37180" yWindow="4620" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32280" yWindow="390" windowWidth="30570" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="97">
   <si>
     <t>probnp</t>
   </si>
@@ -307,15 +307,6 @@
     <t xml:space="preserve">p;b </t>
   </si>
   <si>
-    <t>21/3/23</t>
-  </si>
-  <si>
-    <t>18/1/23</t>
-  </si>
-  <si>
-    <t>30/11/23</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -338,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -728,44 +719,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD20976-4E45-A146-A84F-07820FEA4BED}">
   <dimension ref="A1:CC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" style="14" customWidth="1"/>
-    <col min="22" max="22" width="14.5" style="14" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" style="14" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" style="14" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" style="14" customWidth="1"/>
-    <col min="26" max="26" width="12.83203125" style="14" customWidth="1"/>
-    <col min="27" max="60" width="10.83203125" style="14"/>
-    <col min="61" max="61" width="10.5" style="14" customWidth="1"/>
-    <col min="62" max="16384" width="10.83203125" style="14"/>
+    <col min="21" max="21" width="12.85546875" style="14" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="14" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="14" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="14" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" style="14" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="14" customWidth="1"/>
+    <col min="27" max="60" width="10.85546875" style="14"/>
+    <col min="61" max="61" width="10.42578125" style="14" customWidth="1"/>
+    <col min="62" max="16384" width="10.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" ht="156" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:81" ht="156" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
@@ -905,10 +896,10 @@
         <v>54</v>
       </c>
       <c r="AU1" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AV1" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AW1" s="13" t="s">
         <v>55</v>
@@ -917,7 +908,7 @@
         <v>56</v>
       </c>
       <c r="AY1" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AZ1" s="13" t="s">
         <v>57</v>
@@ -1010,9 +1001,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:81">
       <c r="A2" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2">
         <v>44264</v>
@@ -1022,7 +1013,7 @@
         <v>70.660273972602738</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F2" s="14">
         <v>22.313278429145196</v>
@@ -1217,9 +1208,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:81" ht="25.5">
       <c r="A3" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2">
         <v>44266</v>
@@ -1231,7 +1222,7 @@
         <v>70.813698630136983</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F3" s="14">
         <v>30.222222222222221</v>
@@ -1462,9 +1453,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:81">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2">
         <v>44278</v>
@@ -1476,7 +1467,7 @@
         <v>67.671232876712324</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F4" s="14">
         <v>32.873109796186718</v>
@@ -1707,9 +1698,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:81" ht="25.5">
       <c r="A5" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2">
         <v>44278</v>
@@ -1950,9 +1941,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:81" ht="25.5">
       <c r="A6" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2">
         <v>44285</v>
@@ -1962,7 +1953,7 @@
         <v>69.945205479452056</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F6" s="14">
         <v>27.143037495265748</v>
@@ -2193,9 +2184,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:81" ht="25.5">
       <c r="A7" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2">
         <v>44292</v>
@@ -2207,7 +2198,7 @@
         <v>62.649315068493152</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F7" s="14">
         <v>26.562499999999996</v>
@@ -2438,9 +2429,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:81">
       <c r="A8" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2">
         <v>44328</v>
@@ -2678,9 +2669,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:81" ht="25.5">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2">
         <v>44329</v>
@@ -2921,9 +2912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:81" ht="25.5">
       <c r="A10" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2">
         <v>44425</v>
@@ -3161,9 +3152,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:81">
       <c r="A11" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11" s="2">
         <v>44427</v>
@@ -3404,9 +3395,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:81" ht="25.5">
       <c r="A12" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B12" s="2">
         <v>44439</v>
@@ -3647,9 +3638,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:81" ht="25.5">
       <c r="A13" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B13" s="2">
         <v>44476</v>
@@ -3659,7 +3650,7 @@
         <v>53.956164383561642</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F13" s="14">
         <v>25.393431120318084</v>
@@ -3887,9 +3878,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:81">
       <c r="A14" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B14" s="2">
         <v>44483</v>
@@ -4127,9 +4118,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:81" ht="25.5">
       <c r="A15" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B15" s="2">
         <v>44482</v>
@@ -4139,7 +4130,7 @@
         <v>69.756164383561639</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F15" s="14">
         <v>34.484157572315304</v>
@@ -4370,9 +4361,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:81" ht="25.5">
       <c r="A16" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="2">
         <v>44539</v>
@@ -4615,9 +4606,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:81" ht="25.5">
       <c r="A17" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B17" s="2">
         <v>44574</v>
@@ -4858,9 +4849,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:81">
       <c r="A18" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B18" s="2">
         <v>44587</v>
@@ -5103,9 +5094,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:81">
       <c r="A19" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B19" s="2">
         <v>44595</v>
@@ -5346,9 +5337,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:81">
       <c r="A20" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B20" s="2">
         <v>44607</v>
@@ -5360,7 +5351,7 @@
         <v>67.336986301369862</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F20" s="14">
         <v>40.517766861486606</v>
@@ -5591,9 +5582,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:81">
       <c r="A21" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2">
         <v>44628</v>
@@ -5605,7 +5596,7 @@
         <v>70.641095890410952</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F21" s="14">
         <v>35.926839889679201</v>
@@ -5836,9 +5827,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:81">
       <c r="A22" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B22" s="2">
         <v>44635</v>
@@ -5848,7 +5839,7 @@
         <v>48.780821917808218</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F22" s="14">
         <v>31.861629494765594</v>
@@ -6079,9 +6070,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:81">
       <c r="A23" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B23" s="2">
         <v>44642</v>
@@ -6322,9 +6313,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:81">
       <c r="A24" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B24" s="2">
         <v>44643</v>
@@ -6565,9 +6556,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:81" ht="25.5">
       <c r="A25" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B25" s="2">
         <v>44663</v>
@@ -6805,9 +6796,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:81">
       <c r="A26" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="2">
         <v>44673</v>
@@ -7050,9 +7041,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:81">
       <c r="A27" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B27" s="6">
         <v>44679</v>
@@ -7062,7 +7053,7 @@
         <v>73.723287671232882</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F27" s="14">
         <v>31.553659148768332</v>
@@ -7293,9 +7284,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:81">
       <c r="A28" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2">
         <v>44741</v>
@@ -7536,9 +7527,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:81">
       <c r="A29" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B29" s="10">
         <v>44747</v>
@@ -7779,9 +7770,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:81">
       <c r="A30" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B30" s="2">
         <v>44749</v>
@@ -8022,9 +8013,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:81">
       <c r="A31" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B31" s="2">
         <v>44757</v>
@@ -8267,9 +8258,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:81">
       <c r="A32" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B32" s="2">
         <v>44782</v>
@@ -8279,7 +8270,7 @@
         <v>64.654794520547952</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F32" s="14">
         <v>35.294117647058826</v>
@@ -8507,9 +8498,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:81" ht="25.5">
       <c r="A33" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B33" s="6">
         <v>44784</v>
@@ -8521,7 +8512,7 @@
         <v>69.857534246575341</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F33" s="14">
         <v>29.687499999999993</v>
@@ -8752,9 +8743,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:81" ht="25.5">
       <c r="A34" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B34" s="6">
         <v>44798</v>
@@ -8995,9 +8986,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:81">
       <c r="A35" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B35" s="11">
         <v>44804</v>
@@ -9007,7 +8998,7 @@
         <v>73.183561643835617</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F35" s="14">
         <v>29.411764705882355</v>
@@ -9238,9 +9229,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:81" ht="25.5">
       <c r="A36" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B36" s="11">
         <v>44818</v>
@@ -9250,7 +9241,7 @@
         <v>52.424657534246577</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F36" s="14">
         <v>33.139755081429108</v>
@@ -9481,9 +9472,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:81">
       <c r="A37" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B37" s="11">
         <v>44826</v>
@@ -9495,7 +9486,7 @@
         <v>58.463013698630135</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F37" s="14">
         <v>28.685144680698485</v>
@@ -9726,15 +9717,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:81" ht="25.5">
       <c r="A38" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B38" s="8">
         <v>44826</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>91</v>
+      <c r="C38" s="15">
+        <v>45006</v>
       </c>
       <c r="D38" s="14">
         <v>67.249315068493146</v>
@@ -9968,9 +9959,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:81" ht="25.5">
       <c r="A39" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B39" s="8">
         <v>44838</v>
@@ -10213,9 +10204,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:81" ht="25.5">
       <c r="A40" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B40" s="2">
         <v>44841</v>
@@ -10456,15 +10447,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:81">
       <c r="A41" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2">
         <v>44846</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>92</v>
+      <c r="C41" s="15">
+        <v>44944</v>
       </c>
       <c r="D41" s="14">
         <v>74.980821917808214</v>
@@ -10701,9 +10692,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:81">
       <c r="A42" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2">
         <v>44848</v>
@@ -10713,7 +10704,7 @@
         <v>74.142465753424659</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F42" s="14">
         <v>28.479886080455675</v>
@@ -10944,9 +10935,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:81" ht="25.5">
       <c r="A43" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2">
         <v>44854</v>
@@ -11187,9 +11178,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:81" ht="25.5">
       <c r="A44" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2">
         <v>44853</v>
@@ -11430,9 +11421,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:81">
       <c r="A45" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2">
         <v>44854</v>
@@ -11442,7 +11433,7 @@
         <v>74.895890410958899</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F45" s="14">
         <v>42</v>
@@ -11673,9 +11664,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:81">
       <c r="A46" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2">
         <v>44859</v>
@@ -11685,7 +11676,7 @@
         <v>69.558904109589037</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F46" s="14">
         <v>27.450604870886398</v>
@@ -11916,9 +11907,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:81" ht="25.5">
       <c r="A47" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2">
         <v>44862</v>
@@ -12153,9 +12144,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:81" ht="25.5">
       <c r="A48" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B48" s="4">
         <v>44868</v>
@@ -12298,9 +12289,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:81" ht="25.5">
       <c r="A49" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2">
         <v>44897</v>
@@ -12541,9 +12532,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:81" ht="25.5">
       <c r="A50" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2">
         <v>44932</v>
@@ -12555,7 +12546,7 @@
         <v>59.706849315068496</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F50" s="14">
         <v>22.321428571428577</v>
@@ -12786,9 +12777,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:81">
       <c r="A51" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2">
         <v>44939</v>
@@ -13029,9 +13020,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:81" ht="25.5">
       <c r="A52" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2">
         <v>44967</v>
@@ -13272,9 +13263,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:81" ht="25.5">
       <c r="A53" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B53" s="5">
         <v>44988</v>
@@ -13284,7 +13275,7 @@
         <v>73.764383561643839</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F53" s="14">
         <v>24.049343594386603</v>
@@ -13509,9 +13500,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:81" ht="25.5">
       <c r="A54" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B54" s="5">
         <v>45019</v>
@@ -13521,7 +13512,7 @@
         <v>63.024657534246572</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F54" s="14">
         <v>19.607156612163443</v>
@@ -13651,9 +13642,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:81" ht="25.5">
       <c r="A55" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B55" s="5">
         <v>45023</v>
@@ -13793,9 +13784,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:81">
       <c r="A56" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B56" s="5">
         <v>45027</v>
@@ -13807,7 +13798,7 @@
         <v>67.449315068493149</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F56" s="14">
         <v>19.531249999999996</v>
@@ -14038,21 +14029,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:81">
       <c r="A57" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2">
         <v>45030</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>93</v>
+      <c r="C57" s="15">
+        <v>45260</v>
       </c>
       <c r="D57" s="14">
         <v>75.868493150684927</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F57" s="14">
         <v>29.744199881023206</v>
@@ -14283,9 +14274,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:81">
       <c r="A58" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B58" s="5">
         <v>45065</v>
@@ -14520,9 +14511,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:81" ht="25.5">
       <c r="A59" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B59" s="5">
         <v>45078</v>
@@ -14763,9 +14754,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:81">
       <c r="A60" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2">
         <v>45107</v>
@@ -14775,7 +14766,7 @@
         <v>66.145205479452059</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F60" s="14">
         <v>41.808390022675745</v>
@@ -14905,9 +14896,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:81" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:81" ht="25.5">
       <c r="A61" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2">
         <v>45114</v>

--- a/data/cleaned.xlsx
+++ b/data/cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\vein_ablation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC318413-0C7E-4270-A2DC-0F3C5A2730AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCE39B4-4894-41CE-A592-8E2123041A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37050" yWindow="2355" windowWidth="36345" windowHeight="18435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37125" yWindow="3840" windowWidth="36345" windowHeight="17250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -313,12 +313,6 @@
     <t>dormant_rspv_remap</t>
   </si>
   <si>
-    <t>dormant_RIPV_index</t>
-  </si>
-  <si>
-    <t>dormant_RIPV_remap</t>
-  </si>
-  <si>
     <t>dormant_lspv_index</t>
   </si>
   <si>
@@ -341,6 +335,12 @@
   </si>
   <si>
     <t>sum_dormant_unisolated_lipv</t>
+  </si>
+  <si>
+    <t>dormant_ripv_index</t>
+  </si>
+  <si>
+    <t>dormant_ripv_remap</t>
   </si>
 </sst>
 </file>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD20976-4E45-A146-A84F-07820FEA4BED}">
   <dimension ref="A1:CP61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="BP1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="CM1" sqref="CM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -1092,34 +1092,34 @@
         <v>91</v>
       </c>
       <c r="CG1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="CH1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="CI1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="CH1" s="13" t="s">
+      <c r="CJ1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="CI1" s="13" t="s">
+      <c r="CK1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="CJ1" s="13" t="s">
+      <c r="CL1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="CK1" s="13" t="s">
+      <c r="CM1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="CL1" s="13" t="s">
+      <c r="CN1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="CM1" s="13" t="s">
+      <c r="CO1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="CN1" s="13" t="s">
+      <c r="CP1" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="CO1" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CP1" s="13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:94">

--- a/data/cleaned.xlsx
+++ b/data/cleaned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninakajdic/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\vein_ablation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7663579D-26CA-FC46-8B5D-68C46B4F22CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6541756F-E024-48E4-A8B4-B130459EC253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="210" windowWidth="36420" windowHeight="17250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="102">
   <si>
     <t>probnp</t>
   </si>
@@ -347,7 +347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -753,86 +753,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD20976-4E45-A146-A84F-07820FEA4BED}">
   <dimension ref="A1:CP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="AT6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BE49" sqref="BE49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5" style="19" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="19" customWidth="1"/>
-    <col min="13" max="13" width="5.33203125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="13" customWidth="1"/>
-    <col min="15" max="15" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="13" customWidth="1"/>
-    <col min="20" max="20" width="18.6640625" style="13" customWidth="1"/>
-    <col min="21" max="21" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.83203125" style="13" customWidth="1"/>
-    <col min="23" max="23" width="14.5" style="13" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" style="13" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" style="13" customWidth="1"/>
-    <col min="26" max="26" width="15.33203125" style="13" customWidth="1"/>
-    <col min="27" max="27" width="12.83203125" style="13" customWidth="1"/>
-    <col min="28" max="28" width="23.5" style="13" customWidth="1"/>
-    <col min="29" max="29" width="23.33203125" style="13" customWidth="1"/>
-    <col min="30" max="30" width="20.5" style="13" customWidth="1"/>
-    <col min="31" max="31" width="18.1640625" style="13" customWidth="1"/>
-    <col min="32" max="32" width="17.5" style="13" customWidth="1"/>
-    <col min="33" max="33" width="18.1640625" style="13" customWidth="1"/>
-    <col min="34" max="34" width="21.1640625" style="13" customWidth="1"/>
-    <col min="35" max="35" width="19.5" style="13" customWidth="1"/>
-    <col min="36" max="47" width="10.83203125" style="13"/>
-    <col min="48" max="48" width="19" style="13" customWidth="1"/>
-    <col min="49" max="49" width="16.33203125" style="13" customWidth="1"/>
-    <col min="50" max="50" width="26" style="13" customWidth="1"/>
-    <col min="51" max="51" width="18.5" style="13" customWidth="1"/>
-    <col min="52" max="52" width="19.5" style="13" customWidth="1"/>
-    <col min="53" max="53" width="24.5" style="13" customWidth="1"/>
-    <col min="54" max="54" width="28.5" style="13" customWidth="1"/>
-    <col min="55" max="55" width="25.6640625" style="13" customWidth="1"/>
-    <col min="56" max="56" width="26.1640625" style="13" customWidth="1"/>
-    <col min="57" max="57" width="22.5" style="13" customWidth="1"/>
-    <col min="58" max="58" width="23" style="13" customWidth="1"/>
-    <col min="59" max="59" width="22.5" style="13" customWidth="1"/>
-    <col min="60" max="60" width="23.33203125" style="13" customWidth="1"/>
-    <col min="61" max="61" width="22.6640625" style="13" customWidth="1"/>
-    <col min="62" max="62" width="24.83203125" style="13" customWidth="1"/>
-    <col min="63" max="63" width="20.83203125" style="13" customWidth="1"/>
-    <col min="64" max="64" width="20.33203125" style="13" customWidth="1"/>
-    <col min="65" max="65" width="20.5" style="13" customWidth="1"/>
-    <col min="66" max="66" width="20.6640625" style="13" customWidth="1"/>
-    <col min="67" max="67" width="18" style="13" customWidth="1"/>
-    <col min="68" max="68" width="17.6640625" style="13" customWidth="1"/>
-    <col min="69" max="69" width="18.1640625" style="13" customWidth="1"/>
-    <col min="70" max="70" width="19.33203125" style="13" customWidth="1"/>
-    <col min="71" max="71" width="17.6640625" style="13" customWidth="1"/>
-    <col min="72" max="72" width="16.33203125" style="13" customWidth="1"/>
-    <col min="73" max="74" width="18.6640625" style="13" customWidth="1"/>
-    <col min="75" max="75" width="19.83203125" style="13" customWidth="1"/>
-    <col min="76" max="76" width="19.5" style="13" customWidth="1"/>
-    <col min="77" max="77" width="17.83203125" style="13" customWidth="1"/>
-    <col min="78" max="78" width="18.5" style="13" customWidth="1"/>
-    <col min="79" max="79" width="16.83203125" style="13" customWidth="1"/>
-    <col min="80" max="80" width="18.5" style="13" customWidth="1"/>
-    <col min="81" max="81" width="16.6640625" style="13" customWidth="1"/>
-    <col min="82" max="82" width="17.33203125" style="13" customWidth="1"/>
-    <col min="83" max="16384" width="10.83203125" style="13"/>
+    <col min="20" max="20" width="18.7109375" style="13" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="13" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="13" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="13" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="13" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" style="13" customWidth="1"/>
+    <col min="35" max="35" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="7.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6" style="13" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="27.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="25.7109375" style="13" customWidth="1"/>
+    <col min="56" max="56" width="21.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="16.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15" style="13" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="15.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="15.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="16.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="19.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="20.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="19.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="18.85546875" style="13" customWidth="1"/>
+    <col min="88" max="88" width="20.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="18.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="29.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="28.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="29" style="13" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="28.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="95" max="16384" width="10.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" ht="156" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:94" ht="54.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -1116,7 +1133,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:94">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
@@ -1271,17 +1288,17 @@
       <c r="AZ2" s="13">
         <v>18.000000000000014</v>
       </c>
-      <c r="BA2" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="13">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="13">
-        <v>0</v>
+      <c r="BA2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD2" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE2" s="13">
         <v>1</v>
@@ -1326,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:94">
       <c r="A3" s="13" t="s">
         <v>83</v>
       </c>
@@ -1483,14 +1500,14 @@
       <c r="AZ3" s="13">
         <v>116.99999999999999</v>
       </c>
-      <c r="BA3" s="13">
-        <v>0</v>
+      <c r="BA3" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB3" s="13">
         <v>3.7166666666666668</v>
       </c>
-      <c r="BC3" s="13">
-        <v>0</v>
+      <c r="BC3" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD3" s="13">
         <v>10</v>
@@ -1610,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:94">
       <c r="A4" s="13" t="s">
         <v>82</v>
       </c>
@@ -1858,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:94">
       <c r="A5" s="13" t="s">
         <v>83</v>
       </c>
@@ -2022,8 +2039,8 @@
       <c r="BC5" s="13">
         <v>4</v>
       </c>
-      <c r="BD5" s="13">
-        <v>0</v>
+      <c r="BD5" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE5" s="13">
         <v>1</v>
@@ -2140,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:94">
       <c r="A6" s="13" t="s">
         <v>83</v>
       </c>
@@ -2295,17 +2312,17 @@
       <c r="AZ6" s="13">
         <v>65.000000000000085</v>
       </c>
-      <c r="BA6" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="13">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="13">
-        <v>0</v>
+      <c r="BA6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD6" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE6" s="13">
         <v>1</v>
@@ -2422,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:94">
       <c r="A7" s="13" t="s">
         <v>83</v>
       </c>
@@ -2579,17 +2596,17 @@
       <c r="AZ7" s="13">
         <v>85.000000000000014</v>
       </c>
-      <c r="BA7" s="13">
-        <v>0</v>
+      <c r="BA7" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB7" s="13">
         <v>6.1333333333333337</v>
       </c>
-      <c r="BC7" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="13">
-        <v>0</v>
+      <c r="BC7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD7" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE7" s="13">
         <v>1</v>
@@ -2706,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:94">
       <c r="A8" s="13" t="s">
         <v>82</v>
       </c>
@@ -2949,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:94">
       <c r="A9" s="12" t="s">
         <v>83</v>
       </c>
@@ -3104,14 +3121,14 @@
       <c r="AZ9" s="13">
         <v>80.000000000000028</v>
       </c>
-      <c r="BA9" s="13">
-        <v>0</v>
+      <c r="BA9" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB9" s="13">
         <v>7.3</v>
       </c>
-      <c r="BC9" s="13">
-        <v>0</v>
+      <c r="BC9" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD9" s="13">
         <v>19</v>
@@ -3231,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:94">
       <c r="A10" s="13" t="s">
         <v>83</v>
       </c>
@@ -3272,6 +3289,9 @@
       <c r="N10" s="13" t="s">
         <v>2</v>
       </c>
+      <c r="O10" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="P10" s="13">
         <v>0</v>
       </c>
@@ -3510,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:94">
       <c r="A11" s="13" t="s">
         <v>82</v>
       </c>
@@ -3674,8 +3694,8 @@
       <c r="BC11" s="13">
         <v>10</v>
       </c>
-      <c r="BD11" s="13">
-        <v>0</v>
+      <c r="BD11" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE11" s="13">
         <v>1</v>
@@ -3756,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:94">
       <c r="A12" s="13" t="s">
         <v>83</v>
       </c>
@@ -3911,17 +3931,17 @@
       <c r="AZ12" s="13">
         <v>46.000000000000078</v>
       </c>
-      <c r="BA12" s="13">
-        <v>0</v>
+      <c r="BA12" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB12" s="13">
         <v>1.8</v>
       </c>
-      <c r="BC12" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="13">
-        <v>0</v>
+      <c r="BC12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD12" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE12" s="13">
         <v>1</v>
@@ -4038,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:94">
       <c r="A13" s="13" t="s">
         <v>83</v>
       </c>
@@ -4079,6 +4099,9 @@
       <c r="N13" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="O13" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="P13" s="13">
         <v>0</v>
       </c>
@@ -4190,17 +4213,17 @@
       <c r="AZ13" s="13">
         <v>39.000000000000021</v>
       </c>
-      <c r="BA13" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="13">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="13">
-        <v>0</v>
+      <c r="BA13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD13" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE13" s="13">
         <v>1</v>
@@ -4317,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:94">
       <c r="A14" s="13" t="s">
         <v>82</v>
       </c>
@@ -4358,6 +4381,9 @@
       <c r="N14" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="O14" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="P14" s="13">
         <v>0</v>
       </c>
@@ -4472,14 +4498,14 @@
       <c r="BA14" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="BB14" s="13">
-        <v>0</v>
+      <c r="BB14" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BC14" s="13">
         <v>16</v>
       </c>
-      <c r="BD14" s="13">
-        <v>0</v>
+      <c r="BD14" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE14" s="13">
         <v>1</v>
@@ -4560,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:94">
       <c r="A15" s="13" t="s">
         <v>83</v>
       </c>
@@ -4715,17 +4741,17 @@
       <c r="AZ15" s="13">
         <v>21.000000000000007</v>
       </c>
-      <c r="BA15" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="13">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="13">
-        <v>0</v>
+      <c r="BA15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD15" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE15" s="13">
         <v>1</v>
@@ -4842,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:94">
       <c r="A16" s="13" t="s">
         <v>83</v>
       </c>
@@ -5002,14 +5028,14 @@
       <c r="BA16" s="13">
         <v>5.9666666666666668</v>
       </c>
-      <c r="BB16" s="13">
-        <v>0</v>
+      <c r="BB16" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BC16" s="13">
         <v>14</v>
       </c>
-      <c r="BD16" s="13">
-        <v>0</v>
+      <c r="BD16" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE16" s="13">
         <v>1</v>
@@ -5126,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:94">
       <c r="A17" s="13" t="s">
         <v>83</v>
       </c>
@@ -5281,17 +5307,17 @@
       <c r="AZ17" s="13">
         <v>78.999999999999957</v>
       </c>
-      <c r="BA17" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="13">
-        <v>0</v>
-      </c>
-      <c r="BC17" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD17" s="13">
-        <v>0</v>
+      <c r="BA17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD17" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE17" s="13">
         <v>1</v>
@@ -5408,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:94">
       <c r="A18" s="13" t="s">
         <v>82</v>
       </c>
@@ -5568,14 +5594,14 @@
       <c r="BA18" s="13">
         <v>5.6</v>
       </c>
-      <c r="BB18" s="13">
-        <v>0</v>
+      <c r="BB18" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BC18" s="13">
         <v>15</v>
       </c>
-      <c r="BD18" s="13">
-        <v>0</v>
+      <c r="BD18" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE18" s="13">
         <v>1</v>
@@ -5656,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:94">
       <c r="A19" s="13" t="s">
         <v>82</v>
       </c>
@@ -5820,8 +5846,8 @@
       <c r="BC19" s="13">
         <v>8</v>
       </c>
-      <c r="BD19" s="13">
-        <v>0</v>
+      <c r="BD19" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE19" s="13">
         <v>1</v>
@@ -5902,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:94">
       <c r="A20" s="13" t="s">
         <v>82</v>
       </c>
@@ -6062,14 +6088,14 @@
       <c r="BA20" s="13">
         <v>10.733333333333333</v>
       </c>
-      <c r="BB20" s="13">
-        <v>0</v>
+      <c r="BB20" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BC20" s="13">
         <v>27</v>
       </c>
-      <c r="BD20" s="13">
-        <v>0</v>
+      <c r="BD20" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE20" s="13">
         <v>1</v>
@@ -6150,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:94">
       <c r="A21" s="13" t="s">
         <v>82</v>
       </c>
@@ -6307,14 +6333,14 @@
       <c r="AZ21" s="13">
         <v>80.000000000000028</v>
       </c>
-      <c r="BA21" s="13">
-        <v>0</v>
+      <c r="BA21" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB21" s="13">
         <v>2.8666666666666667</v>
       </c>
-      <c r="BC21" s="13">
-        <v>0</v>
+      <c r="BC21" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD21" s="13">
         <v>8</v>
@@ -6398,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:94">
       <c r="A22" s="13" t="s">
         <v>82</v>
       </c>
@@ -6553,14 +6579,14 @@
       <c r="AZ22" s="13">
         <v>79.999999999999872</v>
       </c>
-      <c r="BA22" s="13">
-        <v>0</v>
+      <c r="BA22" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB22" s="13">
         <v>2.5</v>
       </c>
-      <c r="BC22" s="13">
-        <v>0</v>
+      <c r="BC22" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD22" s="13">
         <v>15</v>
@@ -6644,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:94">
       <c r="A23" s="13" t="s">
         <v>82</v>
       </c>
@@ -6799,14 +6825,14 @@
       <c r="AZ23" s="13">
         <v>60.999999999999943</v>
       </c>
-      <c r="BA23" s="13">
-        <v>0</v>
+      <c r="BA23" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB23" s="13">
         <v>4.3833333333333346</v>
       </c>
-      <c r="BC23" s="13">
-        <v>0</v>
+      <c r="BC23" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD23" s="13">
         <v>21</v>
@@ -6890,7 +6916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:94">
       <c r="A24" s="13" t="s">
         <v>82</v>
       </c>
@@ -7045,14 +7071,14 @@
       <c r="AZ24" s="13">
         <v>109.99999999999993</v>
       </c>
-      <c r="BA24" s="13">
-        <v>0</v>
+      <c r="BA24" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB24" s="13">
         <v>2</v>
       </c>
-      <c r="BC24" s="13">
-        <v>0</v>
+      <c r="BC24" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD24" s="13">
         <v>22</v>
@@ -7136,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:94">
       <c r="A25" s="13" t="s">
         <v>83</v>
       </c>
@@ -7291,17 +7317,17 @@
       <c r="AZ25" s="13">
         <v>43.000000000000007</v>
       </c>
-      <c r="BA25" s="13">
-        <v>0</v>
+      <c r="BA25" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB25" s="13">
         <v>2.25</v>
       </c>
-      <c r="BC25" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="13">
-        <v>0</v>
+      <c r="BC25" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD25" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE25" s="13">
         <v>1</v>
@@ -7418,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:94">
       <c r="A26" s="13" t="s">
         <v>82</v>
       </c>
@@ -7666,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:94">
       <c r="A27" s="13" t="s">
         <v>82</v>
       </c>
@@ -7912,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:94">
       <c r="A28" s="13" t="s">
         <v>82</v>
       </c>
@@ -8067,14 +8093,14 @@
       <c r="AZ28" s="13">
         <v>52.000000000000057</v>
       </c>
-      <c r="BA28" s="13">
-        <v>0</v>
+      <c r="BA28" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB28" s="13">
         <v>1.8999999999999997</v>
       </c>
-      <c r="BC28" s="13">
-        <v>0</v>
+      <c r="BC28" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD28" s="13">
         <v>8</v>
@@ -8158,7 +8184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:94">
       <c r="A29" s="13" t="s">
         <v>82</v>
       </c>
@@ -8404,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:94">
       <c r="A30" s="13" t="s">
         <v>82</v>
       </c>
@@ -8650,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:94">
       <c r="A31" s="13" t="s">
         <v>82</v>
       </c>
@@ -8807,14 +8833,14 @@
       <c r="AZ31" s="13">
         <v>71.000000000000071</v>
       </c>
-      <c r="BA31" s="13">
-        <v>0</v>
+      <c r="BA31" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB31" s="13">
         <v>1.8666666666666667</v>
       </c>
-      <c r="BC31" s="13">
-        <v>0</v>
+      <c r="BC31" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD31" s="13">
         <v>7</v>
@@ -8898,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:94">
       <c r="A32" s="13" t="s">
         <v>82</v>
       </c>
@@ -9053,14 +9079,14 @@
       <c r="AZ32" s="13">
         <v>58.000000000000036</v>
       </c>
-      <c r="BA32" s="13">
-        <v>0</v>
+      <c r="BA32" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB32" s="13">
         <v>2.8</v>
       </c>
-      <c r="BC32" s="13">
-        <v>0</v>
+      <c r="BC32" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD32" s="13">
         <v>6</v>
@@ -9144,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:94">
       <c r="A33" s="13" t="s">
         <v>83</v>
       </c>
@@ -9301,14 +9327,14 @@
       <c r="AZ33" s="13">
         <v>140.00000000000014</v>
       </c>
-      <c r="BA33" s="13">
-        <v>0</v>
+      <c r="BA33" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB33" s="13">
         <v>5.65</v>
       </c>
-      <c r="BC33" s="13">
-        <v>0</v>
+      <c r="BC33" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD33" s="13">
         <v>11</v>
@@ -9428,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:94">
       <c r="A34" s="13" t="s">
         <v>83</v>
       </c>
@@ -9583,17 +9609,17 @@
       <c r="AZ34" s="13">
         <v>80.999999999999957</v>
       </c>
-      <c r="BA34" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB34" s="13">
-        <v>0</v>
-      </c>
-      <c r="BC34" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD34" s="13">
-        <v>0</v>
+      <c r="BA34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD34" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE34" s="13">
         <v>1</v>
@@ -9710,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:94">
       <c r="A35" s="13" t="s">
         <v>82</v>
       </c>
@@ -9865,17 +9891,17 @@
       <c r="AZ35" s="13">
         <v>72.999999999999901</v>
       </c>
-      <c r="BA35" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB35" s="13">
-        <v>0</v>
-      </c>
-      <c r="BC35" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD35" s="13">
-        <v>0</v>
+      <c r="BA35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD35" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE35" s="13">
         <v>1</v>
@@ -9956,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:94">
       <c r="A36" s="13" t="s">
         <v>83</v>
       </c>
@@ -10111,14 +10137,14 @@
       <c r="AZ36" s="13">
         <v>116.99999999999999</v>
       </c>
-      <c r="BA36" s="13">
-        <v>0</v>
+      <c r="BA36" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB36" s="13">
         <v>2.1666666666666665</v>
       </c>
-      <c r="BC36" s="13">
-        <v>0</v>
+      <c r="BC36" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD36" s="13">
         <v>6</v>
@@ -10238,7 +10264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:94">
       <c r="A37" s="13" t="s">
         <v>82</v>
       </c>
@@ -10395,14 +10421,14 @@
       <c r="AZ37" s="13">
         <v>106.99999999999994</v>
       </c>
-      <c r="BA37" s="13">
-        <v>0</v>
+      <c r="BA37" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB37" s="13">
         <v>4.333333333333333</v>
       </c>
-      <c r="BC37" s="13">
-        <v>0</v>
+      <c r="BC37" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD37" s="13">
         <v>15</v>
@@ -10486,7 +10512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:94">
       <c r="A38" s="13" t="s">
         <v>83</v>
       </c>
@@ -10643,17 +10669,17 @@
       <c r="AZ38" s="13">
         <v>77.000000000000043</v>
       </c>
-      <c r="BA38" s="13">
-        <v>0</v>
+      <c r="BA38" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB38" s="13">
         <v>9.8333333333333339</v>
       </c>
-      <c r="BC38" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD38" s="13">
-        <v>0</v>
+      <c r="BC38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD38" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE38" s="13">
         <v>1</v>
@@ -10770,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:94">
       <c r="A39" s="13" t="s">
         <v>83</v>
       </c>
@@ -10927,17 +10953,17 @@
       <c r="AZ39" s="13">
         <v>123.99999999999996</v>
       </c>
-      <c r="BA39" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB39" s="13">
-        <v>0</v>
-      </c>
-      <c r="BC39" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD39" s="13">
-        <v>0</v>
+      <c r="BA39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD39" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE39" s="13">
         <v>1</v>
@@ -11054,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:94">
       <c r="A40" s="13" t="s">
         <v>83</v>
       </c>
@@ -11212,14 +11238,14 @@
       <c r="BA40" s="13">
         <v>3.4</v>
       </c>
-      <c r="BB40" s="13">
-        <v>0</v>
+      <c r="BB40" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BC40" s="13">
         <v>16</v>
       </c>
-      <c r="BD40" s="13">
-        <v>0</v>
+      <c r="BD40" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE40" s="13">
         <v>1</v>
@@ -11336,7 +11362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:94">
       <c r="A41" s="13" t="s">
         <v>82</v>
       </c>
@@ -11493,14 +11519,14 @@
       <c r="AZ41" s="13">
         <v>149.99999999999994</v>
       </c>
-      <c r="BA41" s="13">
-        <v>0</v>
+      <c r="BA41" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB41" s="13">
         <v>4</v>
       </c>
-      <c r="BC41" s="13">
-        <v>0</v>
+      <c r="BC41" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD41" s="13">
         <v>30</v>
@@ -11584,7 +11610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:94">
       <c r="A42" s="13" t="s">
         <v>82</v>
       </c>
@@ -11830,7 +11856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:94">
       <c r="A43" s="13" t="s">
         <v>83</v>
       </c>
@@ -11985,17 +12011,17 @@
       <c r="AZ43" s="13">
         <v>47.000000000000071</v>
       </c>
-      <c r="BA43" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB43" s="13">
-        <v>0</v>
-      </c>
-      <c r="BC43" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD43" s="13">
-        <v>0</v>
+      <c r="BA43" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB43" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC43" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD43" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE43" s="13">
         <v>1</v>
@@ -12112,7 +12138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:94">
       <c r="A44" s="13" t="s">
         <v>83</v>
       </c>
@@ -12267,14 +12293,14 @@
       <c r="AZ44" s="13">
         <v>66</v>
       </c>
-      <c r="BA44" s="13">
-        <v>0</v>
+      <c r="BA44" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB44" s="13">
         <v>1.75</v>
       </c>
-      <c r="BC44" s="13">
-        <v>0</v>
+      <c r="BC44" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD44" s="13">
         <v>4</v>
@@ -12394,7 +12420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:94">
       <c r="A45" s="13" t="s">
         <v>82</v>
       </c>
@@ -12640,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:94">
       <c r="A46" s="13" t="s">
         <v>82</v>
       </c>
@@ -12886,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:94">
       <c r="A47" s="13" t="s">
         <v>83</v>
       </c>
@@ -13044,8 +13070,8 @@
       <c r="BC47" s="13">
         <v>16</v>
       </c>
-      <c r="BD47" s="13">
-        <v>0</v>
+      <c r="BD47" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE47" s="13">
         <v>1</v>
@@ -13162,7 +13188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:94">
       <c r="A48" s="13" t="s">
         <v>83</v>
       </c>
@@ -13314,17 +13340,17 @@
       <c r="AY48" s="13">
         <v>1</v>
       </c>
-      <c r="AZ48" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA48" s="13">
-        <v>0</v>
+      <c r="AZ48" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA48" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB48" s="13">
         <v>6.65</v>
       </c>
-      <c r="BC48" s="13">
-        <v>0</v>
+      <c r="BC48" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD48" s="13">
         <v>17</v>
@@ -13444,7 +13470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:94">
       <c r="A49" s="13" t="s">
         <v>83</v>
       </c>
@@ -13601,17 +13627,17 @@
       <c r="AZ49" s="13">
         <v>110.00000000000009</v>
       </c>
-      <c r="BA49" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB49" s="13">
-        <v>0</v>
-      </c>
-      <c r="BC49" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD49" s="13">
-        <v>0</v>
+      <c r="BA49" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB49" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC49" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD49" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE49" s="13">
         <v>1</v>
@@ -13728,7 +13754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:94">
       <c r="A50" s="13" t="s">
         <v>82</v>
       </c>
@@ -13883,14 +13909,14 @@
       <c r="AZ50" s="13">
         <v>56.999999999999957</v>
       </c>
-      <c r="BA50" s="13">
-        <v>0</v>
+      <c r="BA50" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB50" s="13">
         <v>3.1</v>
       </c>
-      <c r="BC50" s="13">
-        <v>0</v>
+      <c r="BC50" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD50" s="13">
         <v>13</v>
@@ -13974,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:94">
       <c r="A51" s="13" t="s">
         <v>83</v>
       </c>
@@ -14129,17 +14155,17 @@
       <c r="AZ51" s="13">
         <v>42.000000000000014</v>
       </c>
-      <c r="BA51" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB51" s="13">
-        <v>0</v>
-      </c>
-      <c r="BC51" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD51" s="13">
-        <v>0</v>
+      <c r="BA51" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB51" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC51" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD51" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE51" s="13">
         <v>1</v>
@@ -14256,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:94">
       <c r="A52" s="13" t="s">
         <v>83</v>
       </c>
@@ -14405,17 +14431,17 @@
       <c r="AZ52" s="13">
         <v>31.999999999999964</v>
       </c>
-      <c r="BA52" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB52" s="13">
-        <v>0</v>
-      </c>
-      <c r="BC52" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD52" s="13">
-        <v>0</v>
+      <c r="BA52" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB52" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC52" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD52" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE52" s="13">
         <v>1</v>
@@ -14532,7 +14558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:94">
       <c r="A53" s="13" t="s">
         <v>83</v>
       </c>
@@ -14687,17 +14713,17 @@
       <c r="AZ53" s="13">
         <v>44</v>
       </c>
-      <c r="BA53" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB53" s="13">
-        <v>0</v>
-      </c>
-      <c r="BC53" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD53" s="13">
-        <v>0</v>
+      <c r="BA53" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB53" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC53" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD53" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE53" s="13">
         <v>1</v>
@@ -14814,7 +14840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:94">
       <c r="A54" s="13" t="s">
         <v>83</v>
       </c>
@@ -14969,17 +14995,17 @@
       <c r="AZ54" s="13">
         <v>62</v>
       </c>
-      <c r="BA54" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB54" s="13">
-        <v>0</v>
-      </c>
-      <c r="BC54" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD54" s="13">
-        <v>0</v>
+      <c r="BA54" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB54" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC54" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD54" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE54" s="13">
         <v>1</v>
@@ -15096,7 +15122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:94">
       <c r="A55" s="13" t="s">
         <v>82</v>
       </c>
@@ -15344,7 +15370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:94">
       <c r="A56" s="13" t="s">
         <v>82</v>
       </c>
@@ -15501,14 +15527,14 @@
       <c r="AZ56" s="13">
         <v>54.00000000000005</v>
       </c>
-      <c r="BA56" s="13">
-        <v>0</v>
+      <c r="BA56" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB56" s="13">
         <v>4</v>
       </c>
-      <c r="BC56" s="13">
-        <v>0</v>
+      <c r="BC56" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD56" s="13">
         <v>16</v>
@@ -15592,7 +15618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:94">
       <c r="A57" s="13" t="s">
         <v>82</v>
       </c>
@@ -15747,11 +15773,17 @@
       <c r="AZ57" s="13">
         <v>52.000000000000057</v>
       </c>
+      <c r="BA57" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB57" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="BC57" s="13">
         <v>6</v>
       </c>
-      <c r="BD57" s="13">
-        <v>0</v>
+      <c r="BD57" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE57" s="13">
         <v>1</v>
@@ -15832,7 +15864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:94">
       <c r="A58" s="13" t="s">
         <v>83</v>
       </c>
@@ -15990,14 +16022,14 @@
       <c r="BA58" s="13">
         <v>1.3666666666666667</v>
       </c>
-      <c r="BB58" s="13">
-        <v>0</v>
+      <c r="BB58" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BC58" s="13">
         <v>10</v>
       </c>
-      <c r="BD58" s="13">
-        <v>0</v>
+      <c r="BD58" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE58" s="13">
         <v>1</v>
@@ -16114,7 +16146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:94">
       <c r="A59" s="13" t="s">
         <v>82</v>
       </c>
@@ -16269,14 +16301,14 @@
       <c r="AZ59" s="13">
         <v>91</v>
       </c>
-      <c r="BA59" s="13">
-        <v>0</v>
+      <c r="BA59" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BB59" s="13">
         <v>6.6</v>
       </c>
-      <c r="BC59" s="13">
-        <v>0</v>
+      <c r="BC59" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BD59" s="13">
         <v>15</v>
@@ -16360,7 +16392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:94" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:94">
       <c r="A60" s="13" t="s">
         <v>83</v>
       </c>
@@ -16515,17 +16547,17 @@
       <c r="AZ60" s="13">
         <v>27</v>
       </c>
-      <c r="BA60" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB60" s="13">
-        <v>0</v>
-      </c>
-      <c r="BC60" s="13">
-        <v>0</v>
-      </c>
-      <c r="BD60" s="13">
-        <v>0</v>
+      <c r="BA60" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB60" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC60" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD60" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="BE60" s="13">
         <v>1</v>
